--- a/acervo separado/Acervo_Objeto_de_culto.xlsx
+++ b/acervo separado/Acervo_Objeto_de_culto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CEECAB0-3EB7-45E5-A0EC-06B5681086F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA76E846-7210-4ABE-95E7-56479A733650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$6</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$6</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,9 +105,6 @@
     <t>Objetos cerimoniais</t>
   </si>
   <si>
-    <t>Talha/madeira</t>
-  </si>
-  <si>
     <t>RT ARM1</t>
   </si>
   <si>
@@ -116,9 +120,6 @@
     <t>Toalha de altar</t>
   </si>
   <si>
-    <t>Bordado/linha de seda e linho</t>
-  </si>
-  <si>
     <t>201,0 x 59,0 cm</t>
   </si>
   <si>
@@ -149,9 +150,6 @@
     <t>Toalha de altar (Ordem do Carmo "?")</t>
   </si>
   <si>
-    <t>Linho</t>
-  </si>
-  <si>
     <t>140,0 x 210,0 cm</t>
   </si>
   <si>
@@ -195,6 +193,15 @@
   </si>
   <si>
     <t>140,0 cm</t>
+  </si>
+  <si>
+    <t>mattec_28</t>
+  </si>
+  <si>
+    <t>mattec_285</t>
+  </si>
+  <si>
+    <t>mattec_150</t>
   </si>
 </sst>
 </file>
@@ -579,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,13 +665,13 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -672,22 +679,22 @@
         <v>1500</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -696,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -708,10 +715,10 @@
         <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -719,22 +726,22 @@
         <v>1499</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -743,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
         <v>19</v>
@@ -755,10 +762,10 @@
         <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -766,22 +773,22 @@
         <v>1498</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -790,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
@@ -802,10 +809,10 @@
         <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -813,22 +820,22 @@
         <v>1422</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -837,7 +844,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
@@ -849,13 +856,13 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -863,22 +870,22 @@
         <v>1521</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -887,7 +894,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -899,10 +906,10 @@
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
